--- a/biology/Botanique/Liste_des_espèces_d'orchidées_du_genre_Stelis/Liste_des_espèces_d'orchidées_du_genre_Stelis.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'orchidées_du_genre_Stelis/Liste_des_espèces_d'orchidées_du_genre_Stelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,48 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En aout 2022, Plants of the World Online acceptait les noms d'espèces suivants[1] :
-A
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En aout 2022, Plants of the World Online acceptait les noms d'espèces suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis abdita Luer
 Stelis aberrans Luer &amp; R.Vásquez
 Stelis acaroi Luer &amp; Hirtz
@@ -612,7 +662,43 @@
 Stelis aviceps Lindl.
 Stelis avirostris (Luer &amp; Hirtz) Pridgeon &amp; M.W.Chase
 Stelis azuayensis Luer
-B
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis bacriosa Luer &amp; R.Vásquez
 Stelis ballatrix Luer &amp; R.Vásquez
 Stelis barbae Schltr.
@@ -663,7 +749,43 @@
 Stelis bucculenta Luer &amp; Hirtz
 Stelis butcheri Luer
 Stelis buxiflora Luer &amp; Hirtz
-C
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis caesariata Luer &amp; Hirtz
 Stelis caespitosa Lindl.
 Stelis caespitula Luer &amp; R.Escobar
@@ -817,7 +939,43 @@
 Stelis cylindrica (Luer) Pridgeon &amp; M.W.Chase
 Stelis cymbisepala Pridgeon &amp; M.W.Chase
 Stelis cypripedioides (Luer) Pridgeon &amp; M.W.Chase
-D
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis dactyloptera Rchb.f.
 Stelis dalessandroi Luer
 Stelis dalstroemii Luer
@@ -887,7 +1045,43 @@
 Stelis dusenii Garay
 Stelis dussii Cogn.
 Stelis dynamica Luer &amp; R.Escobar
-E
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis ebenea Luer &amp; Hirtz
 Stelis ecmeles Luer
 Stelis effusa Schltr.
@@ -930,7 +1124,43 @@
 Stelis exilis Luer &amp; Hirtz
 Stelis expansa (Lindl.) Pridgeon &amp; M.W.Chase
 Stelis exquisita Luer
-F
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis fabulosa Luer &amp; Endara
 Stelis falcatiloba (Ames) Bogarín &amp; Serracín
 Stelis falcifera Luer &amp; Hirtz
@@ -981,7 +1211,43 @@
 Stelis furculifera (Dressler &amp; Bogarín) Bogarín
 Stelis furfuracea F.Lehm. &amp; Kraenzl.
 Stelis fusilifera Luer &amp; R.Escobar
-G
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis galapagosensis Luer &amp; R.Escobar
 Stelis galeata (Lindl.) Pridgeon &amp; M.W.Chase
 Stelis galeola Luer &amp; Hirtz
@@ -1027,7 +1293,43 @@
 Stelis gunningiana (Barb.Rodr.) ined.
 Stelis gustavoi O.Duque
 Stelis guttata (Luer) Pridgeon &amp; M.W.Chase
-H
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis habrostachya Luer &amp; Hirtz
 Stelis hagsateri Solano
 Stelis hallii Lindl.
@@ -1063,7 +1365,43 @@
 Stelis hymenopetala Luer &amp; Endara
 Stelis hypsela Luer
 Stelis hypsitera Luer &amp; R.Escobar
-I–J
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I–J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis ibischiorum Luer &amp; R.Vásquez
 Stelis imbricans Luer &amp; Hirtz
 Stelis immersa (Linden &amp; Rchb.f.) Pridgeon &amp; M.W.Chase
@@ -1105,7 +1443,43 @@
 Stelis jurisdicciensis Luer &amp; R.Escobar
 Stelis jurisdixii (Luer &amp; R.Escobar) Pridgeon &amp; M.W.Chase
 Stelis juxta (Luer, Thoerle &amp; F.Werner) J.M.H.Shaw
-K–L
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K–L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis kailae Solano &amp; C.Dietz
 Stelis kareniae Luer
 Stelis kautskyi Luer &amp; Toscano
@@ -1186,7 +1560,43 @@
 Stelis luteola Luer &amp; Hirtz
 Stelis luteria Luer &amp; Hirtz
 Stelis lynniana Luer
-M
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis machupicchuensis Collantes &amp; C.Martel
 Stelis macilenta Luer &amp; Hirtz
 Stelis macra Schltr.
@@ -1283,7 +1693,43 @@
 Stelis muscosa Lindl.
 Stelis mystax (Luer) Pridgeon &amp; M.W.Chase
 Stelis mystrion Luer &amp; R.Escobar
-N
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis nagelii Solano
 Stelis nambijae Luer &amp; Hirtz
 Stelis nana Lindl.
@@ -1313,7 +1759,43 @@
 Stelis nutans Lindl.
 Stelis nutationis Luer &amp; R.Vásquez
 Stelis nycterina Luer &amp; Hirtz
-O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis oaxacana Solano
 Stelis obescula Luer &amp; R.Escobar
 Stelis oblector Luer &amp; R.Escobar
@@ -1352,7 +1834,43 @@
 Stelis oxypetala Schltr.
 Stelis oxysepala Schltr.
 Stelis ozota Luer &amp; R.Escobar
-P–Q
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P–Q</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis pachoi Luer &amp; R.Escobar
 Stelis pachyglossa (Lindl.) Pridgeon &amp; M.W.Chase
 Stelis pachypetala Luer &amp; R.Vásquez
@@ -1497,7 +2015,43 @@
 Stelis quadrata Luer &amp; R.Vásquez
 Stelis quinquenervia C.Schweinf.
 Stelis quintella Luer &amp; Hirtz
-R
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis rabei Foldats
 Stelis radicans Luer &amp; R.Escobar
 Stelis ramificans Luer &amp; Endara
@@ -1550,7 +2104,43 @@
 Stelis ruprechtiana Rchb.f.
 Stelis ruris O.Duque
 Stelis rutrum Luer &amp; R.Vásquez
-S
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stelis saavedrensis Luer &amp; R.Vásquez
 Stelis saccata Luer &amp; Hirtz
 Stelis sagittata Zambrano &amp; Solano
@@ -1571,7 +2161,369 @@
 Stelis sarae Luer &amp; Hirtz
 Stelis sarcophylla Luer
 Stelis satyrella Luer &amp; Hirtz
-Ste</t>
+Stelis satyrica Luer &amp; Hirtz
+Stelis saurocephala Luer &amp; Hirtz
+Stelis saurota Luer &amp; R.Escobar
+Stelis scaberula Luer &amp; Hirtz
+Stelis scabrata (Lindl.) Pridgeon &amp; M.W.Chase
+Stelis scabrida Lindl.
+Stelis scalaris Luer &amp; R.Escobar
+Stelis scalena Luer &amp; Hirtz
+Stelis scandens Rolfe
+Stelis scansor Rchb.f.
+Stelis scaphoglossa Luer &amp; Hirtz
+Stelis scaphoides O.Duque
+Stelis scariosa (Lex.) Karremans
+Stelis sceptrumrubrum Luer &amp; R.Escobar
+Stelis schenckii Schltr.
+Stelis schistochila Luer &amp; Hirtz
+Stelis schlechteriana Garay
+Stelis schlimii (Luer) Karremans
+Stelis schmidtchenii Schltr.
+Stelis schnitteri Schltr.
+Stelis schomburgkii Fawc. &amp; Rendle
+Stelis scitula Luer &amp; Hirtz
+Stelis sclerophylla (Lindl.) Karremans
+Stelis scolnikiae (Luer &amp; Endara) J.M.H.Shaw
+Stelis scopulosa Luer &amp; Hirtz
+Stelis scutella O.Duque
+Stelis scutellifera Luer &amp; R.Escobar
+Stelis secunda Luer &amp; Dalström
+Stelis secundosa Luer
+Stelis segoviensis (Rchb.f.) Pridgeon &amp; M.W.Chase
+Stelis sellaformis O.Duque
+Stelis semperflorens Luer
+Stelis septella Luer
+Stelis septicola Luer &amp; Endara
+Stelis seriata Luer &amp; R.Vásquez
+Stelis serra Lindl.
+Stelis serrulifera Luer &amp; Hirtz
+Stelis sessilis Luer &amp; Toscano
+Stelis setacea Lindl.
+Stelis siberica Luer &amp; R.Vásquez
+Stelis signifera Luer &amp; R.Vásquez
+Stelis sijmii Luer
+Stelis silverstonei Luer
+Stelis silvestris Luer &amp; R.Escobar
+Stelis simplex (Ames &amp; C.Schweinf.) Pridgeon &amp; M.W.Chase
+Stelis simplicilabia (C.Schweinf.) Pridgeon &amp; M.W.Chase
+Stelis singularis Luer &amp; Hirtz
+Stelis siphonantha (Luer) Pridgeon &amp; M.W.Chase
+Stelis situlifera Luer &amp; Hirtz
+Stelis skutchii Ames
+Stelis sobrina Luer &amp; R.Escobar
+Stelis soconuscana Solano
+Stelis solomonii Luer
+Stelis somnolenta Luer &amp; Hirtz
+Stelis soratana (Rchb.f.) Karremans
+Stelis soricina Luer &amp; Hirtz
+Stelis sororcula Luer &amp; Hirtz
+Stelis sotoarenasii Solano
+Stelis sparsiflora Luer &amp; Hirtz
+Stelis spathilabia (Schltr.) Karremans
+Stelis spathosa (Luer &amp; R.Escobar) Pridgeon &amp; M.W.Chase
+Stelis spathulata Poepp. &amp; Endl.
+Stelis spathuliformis (Luer &amp; R.Vásquez) Karremans
+Stelis speckmaieri Luer &amp; Sijm
+Stelis splendens Luer
+Stelis standleyi Ames
+Stelis stapedia O.Duque
+Stelis steganopus Garay
+Stelis steinbachii Luer
+Stelis stelidiopsis (Luer) Pridgeon &amp; M.W.Chase
+Stelis stenophylla Rchb.f.
+Stelis stergiosii (Carnevali &amp; I.Ramírez) Karremans
+Stelis stevensonii Luer
+Stelis steyermarkii Foldats
+Stelis stigmatosa Luer &amp; R.Escobar
+Stelis stipitata Luer &amp; R.Escobar
+Stelis stiriosa Luer &amp; Dalström
+Stelis stolonifera Luer &amp; Hirtz
+Stelis storkii Ames
+Stelis straminea Luer &amp; R.Escobar
+Stelis strictissima Luer &amp; Hirtz
+Stelis strigosa Luer &amp; R.Vásquez
+Stelis striolata Lindl.
+Stelis strobilacea Luer
+Stelis subequalis Luer &amp; R.Vásquez
+Stelis subinconspicua Schltr.
+Stelis sublesta Luer &amp; R.Escobar
+Stelis subtilis Luer &amp; Dalström
+Stelis succuba Luer &amp; R.Vásquez
+Stelis suinii (Luer) J.M.H.Shaw
+Stelis sulcata O.Duque
+Stelis sumacoensis Luer &amp; Hirtz
+Stelis superbiens Lindl.
+Stelis supervivens Luer &amp; Hirtz
+Stelis surrogatilabia Luer &amp; Hirtz
+Stelis susanensis (Hoehne) Pridgeon &amp; M.W.Chase
+Stelis synsepala Cogn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Stelis tachirensis Foldats
+Stelis tamboensis Luer &amp; R.Vásquez
+Stelis tanythrix Luer &amp; Hirtz
+Stelis tarantula (Luer &amp; Hirtz) Pridgeon &amp; M.W.Chase
+Stelis tarda Luer &amp; Hirtz
+Stelis taurina O.Duque
+Stelis tauroculus Luer &amp; R.Escobar
+Stelis taxis (Luer) Pridgeon &amp; M.W.Chase
+Stelis teaguei Luer &amp; Hirtz
+Stelis tempestuosa Luer &amp; Hirtz
+Stelis tenebrosa (Archila, Szlach. &amp; Chiron) Karremans
+Stelis tenuicaulis Lindl.
+Stelis tenuifolia Luer &amp; Hirtz
+Stelis tenuilabris Lindl.
+Stelis tenuipetala Garay
+Stelis tenuissima Schltr.
+Stelis tepuiensis (Carnevali &amp; I.Ramírez) Karremans
+Stelis tetramera Luer
+Stelis thamiostachya Luer &amp; Endara
+Stelis thecoglossa Rchb.f.
+Stelis thelephora Luer, Thoerle &amp; F.Werner
+Stelis thermophila Schltr.
+Stelis thoerleae Luer
+Stelis thomasiae (Luer) Pridgeon &amp; M.W.Chase
+Stelis thymochila (Luer) Pridgeon &amp; M.W.Chase
+Stelis tinekae Luer &amp; R.Vásquez
+Stelis tintinnabula (Luer) Pridgeon &amp; M.W.Chase
+Stelis titanica Luer &amp; R.Escobar
+Stelis tobarii Luer &amp; Hirtz
+Stelis tolimensis Schltr.
+Stelis tomcroatii Luer
+Stelis tomentosa Luer &amp; R.Vásquez
+Stelis tonduziana Schltr.
+Stelis torrenticola Luer &amp; R.Vásquez
+Stelis tortilis (Luer &amp; R.Escobar) Pridgeon &amp; M.W.Chase
+Stelis tortuosa Luer &amp; Hirtz
+Stelis torulosa Luer &amp; R.Escobar
+Stelis translucens Luer &amp; Hirtz
+Stelis transversalis Ames
+Stelis triangulabia Ames
+Stelis triangularis Barb.Rodr.
+Stelis triangulisepala C.Schweinf.
+Stelis triapiculata Dod
+Stelis triaristata Luer
+Stelis tricardium Lindl.
+Stelis trichoglottis Luer &amp; Dodson
+Stelis trichorrhachis Rchb.f.
+Stelis trichostoma (Luer) Pridgeon &amp; M.W.Chase
+Stelis tricula Luer &amp; Hirtz
+Stelis tridactyloides Luer &amp; Hirtz
+Stelis tridactylon Luer
+Stelis tridentata Lindl.
+Stelis trifoliacea Luer &amp; R.Escobar
+Stelis trilobata O.Duque
+Stelis trimera Luer
+Stelis triplaris Luer &amp; R.Escobar
+Stelis triplex Luer &amp; Hirtz
+Stelis triplicata Lindl.
+Stelis triseta Lindl.
+Stelis tritriangulata Luer &amp; R.Escobar
+Stelis trochophora Luer &amp; R.Escobar
+Stelis tropex Luer &amp; Endara
+Stelis trulla (Rchb.f. &amp; Warsz.) Pridgeon &amp; M.W.Chase
+Stelis trullifera Luer &amp; R.Vásquez
+Stelis trullilabia Luer &amp; R.Escobar
+Stelis truncata Lindl.
+Stelis tryssa Luer &amp; R.Escobar
+Stelis tsubotae Luer &amp; R.Escobar
+Stelis tumida Luer &amp; Hirtz
+Stelis tunariensis Luer &amp; R.Vásquez
+Stelis tunguraguae (F.Lehm. &amp; Kraenzl.) Pridgeon &amp; M.W.Chase
+Stelis tweedieana Lindl.
+Stelis tyria Luer, Thoerle &amp; F.Werner
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>U–V</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Stelis uberis Luer &amp; R.Escobar
+Stelis umbelliformis Hespenh. &amp; Dressler
+Stelis umbonis Luer &amp; Hirtz
+Stelis umbriae Schltr.
+Stelis uncifera Luer &amp; Hirtz
+Stelis uncinata Pridgeon &amp; M.W.Chase
+Stelis uncinula Luer &amp; Hirtz
+Stelis undecimi Luer &amp; F.Werner
+Stelis unduavica (Luer &amp; R.Vásquez) Karremans
+Stelis unduaviensis Luer &amp; R.Vásquez
+Stelis undulata Luer &amp; Hirtz
+Stelis uniflora Luer &amp; Hirtz
+Stelis uninervia C.Schweinf.
+Stelis uribeorum Luer &amp; R.Escobar
+Stelis uvaegelata L.E.Matthews
+Stelis validipes Luer &amp; R.Escobar
+Stelis valladolidensis Luer &amp; D'Aless.
+Stelis vallata Luer
+Stelis valvulosa Luer &amp; R.Escobar
+Stelis vanescens Luer
+Stelis vargasii (C.Schweinf.) Pridgeon &amp; M.W.Chase
+Stelis varicella Luer &amp; R.Vásquez
+Stelis variola Luer &amp; R.Escobar
+Stelis vasqueziana Karremans
+Stelis vasquezii (Luer) Karremans
+Stelis vegrandis (Luer &amp; Dodson) Pridgeon &amp; M.W.Chase
+Stelis velaticaulis (Rchb.f.) Pridgeon &amp; M.W.Chase
+Stelis velatipes (Rchb.f.) Karremans
+Stelis velivolva Luer &amp; Hirtz
+Stelis velutina Lindl.
+Stelis venezuelensis Foldats
+Stelis venosa Luer &amp; Endara
+Stelis veracrucensis Solano
+Stelis veraguasensis Luer
+Stelis verbiformis (Luer) Pridgeon &amp; M.W.Chase
+Stelis verecunda Schltr.
+Stelis verruculosa Luer &amp; R.Escobar
+Stelis vesca Luer &amp; Hirtz
+Stelis vespertina Solano &amp; Soto Arenas
+Stelis vestita Ames
+Stelis viamontis Luer &amp; Hirtz
+Stelis vicaria Luer &amp; R.Escobar
+Stelis vigax Luer &amp; R.Escobar
+Stelis vigoris Luer &amp; R.Escobar
+Stelis villifera Luer
+Stelis villosa (Knowles &amp; Westc.) Pridgeon &amp; M.W.Chase
+Stelis villosilabia Luer &amp; Hirtz
+Stelis violacea Garay
+Stelis virgata (Luer) Pridgeon &amp; M.W.Chase
+Stelis virgulata Schltr.
+Stelis viridibrunnea F.Lehm. &amp; Kraenzl.
+Stelis viridiflava (Karremans &amp; Bogarín) Karremans &amp; Bogarín
+Stelis viridula Luer
+Stelis vollesii Luer &amp; Dodson
+Stelis voluptuosa Luer &amp; R.Escobar
+Stelis vulcani Rchb.f.
+Stelis vulpecula Luer &amp; R.Escobar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_d'orchidées_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%27orchid%C3%A9es_du_genre_Stelis</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W–Z</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Stelis wagneri (Schltr.) Pridgeon &amp; M.W.Chase
+Stelis walteri Schltr.
+Stelis weberbaueri Schltr.
+Stelis weddelliana (Rchb.f.) Pridgeon &amp; M.W.Chase
+Stelis wendtii Solano
+Stelis wercklei Schltr.
+Stelis werneri Schltr.
+Stelis wilhelmii Luer
+Stelis williamsii Ames
+Stelis xenica Luer &amp; R.Escobar
+Stelis xerophila (Schltr.) Soto Arenas
+Stelis ximenae Luer &amp; Hirtz
+Stelis xiphizusa (Rchb.f. &amp; Warsz.) Pridgeon &amp; M.W.Chase
+Stelis xystophora Luer
+Stelis yanganensis Luer &amp; Hirtz
+Stelis zamorae Luer &amp; Hirtz
+Stelis zarumae Luer &amp; Hirtz
+Stelis zelenkoi Luer &amp; Hirtz
+Stelis zelleri Luer
+Stelis zigzag Luer &amp; Hirtz
+Stelis zongoensis Luer &amp; R.Vásquez
+Stelis zootrophionoides Castañeda-Zárate &amp; Ramos-Castro
+Stelis zothecula Luer
+Stelis zunagensis (Luer &amp; Hirtz) Pridgeon &amp; M.W.Chase
+</t>
         </is>
       </c>
     </row>
